--- a/assets/Tabla de redes.xlsx
+++ b/assets/Tabla de redes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franklin\Documents\Admon Redes II\Propuesta-Red-LAN\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E0BCB-8CC7-48A5-95E7-07503306C4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BAFAEC-FA29-4752-B792-C27CBD6C52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{314BB593-AF0B-4932-BDDB-3BDF1E14AA2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{314BB593-AF0B-4932-BDDB-3BDF1E14AA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="EN USO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>VLANs</t>
   </si>
@@ -144,13 +145,49 @@
   </si>
   <si>
     <t>172.168.7.0/26</t>
+  </si>
+  <si>
+    <t>Hasta aca</t>
+  </si>
+  <si>
+    <t>192.168.8.0/29</t>
+  </si>
+  <si>
+    <t>192.168.6.0/29</t>
+  </si>
+  <si>
+    <t>192.168.7.0/27</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +229,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,11 +279,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +338,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183C81F8-EADA-44A2-A798-FDFB53AAEB89}">
-  <dimension ref="B3:F22"/>
+  <dimension ref="B3:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +675,14 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -617,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>6</v>
       </c>
@@ -634,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -651,7 +733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -668,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>11</v>
       </c>
@@ -685,14 +767,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -709,7 +791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -726,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -743,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -759,15 +841,18 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>5</v>
       </c>
@@ -886,4 +971,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DD626F-04C8-4D1B-897C-459C7C4637F4}">
+  <dimension ref="D6:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Tabla de redes.xlsx
+++ b/assets/Tabla de redes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franklin\Documents\Admon Redes II\Propuesta-Red-LAN\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BAFAEC-FA29-4752-B792-C27CBD6C52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6838C6-A9A2-40C0-A1E9-8A75E9937E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{314BB593-AF0B-4932-BDDB-3BDF1E14AA2D}"/>
   </bookViews>
@@ -333,18 +333,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,11 +676,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -768,11 +768,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -841,16 +841,16 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -978,7 +978,7 @@
   <dimension ref="D6:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>48</v>
       </c>
     </row>
